--- a/biology/Zoologie/Fundulopanchax_amieti/Fundulopanchax_amieti.xlsx
+++ b/biology/Zoologie/Fundulopanchax_amieti/Fundulopanchax_amieti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fundulopanchax amieti est une espèce de poissons d'eau douce de la famille des Nothobranchiidae et qui se rencontre au Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Fundulopanchax amieti a été initialement décrite en 1976 par l'ichtyologiste autrichien Alfred C. Radda (d) (1936-) sous le protonyme d’Aphyosemion amieti[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Fundulopanchax amieti a été initialement décrite en 1976 par l'ichtyologiste autrichien Alfred C. Radda (d) (1936-) sous le protonyme d’Aphyosemion amieti.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fundulopanchax amieti se rencontre dans le bassin versant de la Sanaga dans l'Ouest du Cameroun[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fundulopanchax amieti se rencontre dans le bassin versant de la Sanaga dans l'Ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fundulopanchax amieti mesure jusqu'à 7 cm de longueur totale[3]. Les mâles utilisent leur queue bleue et jaune durant la parade.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fundulopanchax amieti mesure jusqu'à 7 cm de longueur totale. Les mâles utilisent leur queue bleue et jaune durant la parade.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En aquarium, il nécessite une eau entre 20 et 25 °C, et au pH neutre à légèrement acide compris entre 5,8 et 7,2[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En aquarium, il nécessite une eau entre 20 et 25 °C, et au pH neutre à légèrement acide compris entre 5,8 et 7,2.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, amieti, lui a été donnée en l'honneur du zoologiste français Jean-Louis Amiet (1936-), qui fut professeur à l'université de Yaoundé au Cameroun, pour ses précieux conseils concernant les poissons du Cameroun dont cette espèce est endémique[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, amieti, lui a été donnée en l'honneur du zoologiste français Jean-Louis Amiet (1936-), qui fut professeur à l'université de Yaoundé au Cameroun, pour ses précieux conseils concernant les poissons du Cameroun dont cette espèce est endémique.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) Alfred C. Radda, « Neubeschreibung von Aphyosemion amieti nov. spec. aus Kamerun und Aphyosemion deltaënse nov. spec. aus Nigeria », Aquaria: Vivaristische Fachzeitschrift für die Schweiz und Oesterreich, vol. 23, no 4,‎ avril 1976, p. 51-60.</t>
         </is>
